--- a/PRCRMP/temporal_region/benthic/data/benthic_indicators.xlsx
+++ b/PRCRMP/temporal_region/benthic/data/benthic_indicators.xlsx
@@ -1,2008 +1,2015 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d52177a9150211f7/Documents/UPR-NOAA/datos_LENFEST/LENFEST/PRCRMP/temporal_region/benthic/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_B89231273CA96882C8C5B8B7931E1A1DD258D017" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A1D66E4-13BB-44C4-A539-CB0A84050C6A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="661">
-  <si>
-    <t xml:space="preserve">SAMPLE CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benthic Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phylum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbonate Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Productivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rugosity (m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rugosity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reef overhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abiotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand and rubble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaps/Holes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bartholomea annulata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anemone spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cnidaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthozoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actiniaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aiptasiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bartholomea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annulata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebrunia neglecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliciidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebrunia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neglecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phymanthus crucifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phymanthidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phymanthus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crucifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricordea florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corallimorpharia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricordeidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricordea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actiniidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anemone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eudistoma spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascidian spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chordata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascidiacea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplousobranchia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polycitoridae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eudistoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trididemnum solidum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didemnidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trididemnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thalassia testudinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seagrass spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracheophyta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnoliopsida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alismatales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocharitaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thalassia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testudinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphiroa spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macroalgae spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhodophyta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florideophyceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corallinales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithophyllaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphiroa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asparagopsis taxiformis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonnemaisoniales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonnemaisoniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asparagopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxiformis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asparagopsis taxiformis on Ramicrusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caulerpa racemosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulvophyceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryopsidales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caulerpaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caulerpa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">racemosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caulerpa spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caulerpa spp. on Ramicrusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichotomaria marginata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nemaliales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galaxauraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichotomaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marginata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyota spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochrophyta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phaeophyceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyotales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyotaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyota spp. on Ramicrusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galaxaura spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galaxaura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galaxaura spp. on Ramicrusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracilaria spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracilariales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracilariaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracilaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halimeda discoidea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halimedaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halimeda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discoidea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halimeda spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halimeda spp. on Ramicrusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halimeda tuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jania spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corallinaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobophora spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobophora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobophora variegata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variegata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobophora variegatus on Ramicrusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martensia pavonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delesseriaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martensia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pavonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padina spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sargassum hystrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fucales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sargassaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sargassum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hystrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sargassum natans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stypopodium spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stypopodium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stypopodium zonale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zonale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udotea spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udoteaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udotea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valonia ventricosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cladophorales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valoniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ventricosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrangelia bicuspidata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrangeliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrangelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bicuspidata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantae Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramicrusta spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peyssonneliaceae spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peyssonneliales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peyssonneliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramicrusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peyssonnelia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peyssonnelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turf (mixed) on Ramicrusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turf algae spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turf (mixed) with sediment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turf (mixed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antillogorgia acerosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octocoral spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcyonacea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorgoniidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antillogorgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acerosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antillogorgia americana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">americana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antillogorgia bipinnata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bipinnata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antillogorgia rigida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eunicea calyculata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plexauridae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eunicea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calyculata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eunicea flexuosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flexuosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eunicea mammosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mammosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eunicea pallida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pallida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eunicea spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eunicea succinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">succinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eunicea tourneforti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourneforti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorgonia mariae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorgonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mariae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorgonia ventalina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ventalina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muricea atlantica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muricea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atlantica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muricea elongata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elongata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muricea muricata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muricata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muricea pinnata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinnata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muriceopsis flavida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muriceopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flavida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plexaura homomalla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plexaura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homomalla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plexaura kukenthali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kukenthali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plexaura spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plexaurella nutans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plexaurella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nutans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plexaurella spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudoplexaura flagellosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudoplexaura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flagellosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudoplexaura spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudoplexaura wagenaari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wagenaari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterogorgia guadalupensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterogorgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guadalupensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterogorgia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Briareum asbestinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Briareidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Briareum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asbestinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythropodium caribaeorum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthothelidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythropodium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caribaeorum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octocoral spp.(encrusting)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelas citrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sponge spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demospongiae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelasida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelasidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelas clathrodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clathrodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelas conifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelas dispar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dispar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelas sceptrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sceptrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelas spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelas sventres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sventres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agelas tubulata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubulata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aiolochroia crassa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verongiida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplysinidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aiolochroia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crassa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphimedon compressa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haplosclerida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niphatidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphimedon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compressa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphimedon viridis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viridis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplysina archeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplysina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplysina cauliformis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cauliformis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplysina fistularis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fistularis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplysina fulva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplysina lacunosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lacunosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplysina spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biemna caribea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biemnida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biemnidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biemna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caribea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biemna spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callyspongia armigera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callyspongiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callyspongia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armigera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callyspongia fallax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callyspongia plicifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plicifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callyspongia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callyspongia tenerrima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenerrima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callyspongia vaginalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaginalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrilla caribensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrillida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrillidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caribensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrosia collectrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrosiida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrosiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrosia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collectrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinachyrella apion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetractinellida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetillidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinachyrella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinachyrella kuekenthali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kuekenthali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clathria spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poecilosclerida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microcionidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clathria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clathria venosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">venosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliona aprica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clionaida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clionaidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aprica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliona caribbaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caribbaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliona delitrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delitrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliona laticavicola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laticavicola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliona spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliona tenuis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenuis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliona varians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cribrochalina vasculum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cribrochalina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vasculum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desmapsamma spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desmacididae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desmapsamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desmapsamma anchorata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anchorata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyonella funicularis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubarida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyonellidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyonella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funicularis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyonella spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diplastrella spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirastrellidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diplastrella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragmacidon reticulatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axinellida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axinellidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragmacidon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reticulatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysidea etheria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictyoceratida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysideidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysidea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etheria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysidea janiae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">janiae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ectyoplasia ferox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspailiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ectyoplasia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ferox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geodia neptuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geodiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neptuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haliclona spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chalinidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haliclona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halisarca caerulea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halisarcidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halisarca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caerulea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halisarca spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iotrochota arenosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iotrochotidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iotrochota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arenosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iotrochota birotulata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birotulata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ircinia campana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irciniidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ircinia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ircinia felix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">felix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ircinia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ircinia strobilina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strobilina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monanchora arbuscula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crambeidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monanchora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arbuscula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycale laevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycalidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycale laxissima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laxissima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neofibularia nolitangere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neofibularia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nolitangere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neopetrosia carbonaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrosiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neopetrosia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbonaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neopetrosia proxima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neopetrosia rosariensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosariensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neopetrosia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niphates alba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niphates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphimedon caribica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caribica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niphates caycedoi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caycedoi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niphates digitalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digitalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niphates erecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niphates spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrosia pellasarca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrosia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pellasarca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrosia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrosia weinbergi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weinbergi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phorbas amaranthus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hymedesmiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phorbas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amaranthus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timea micraster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hadromerida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placospongiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micraster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plakortis angulospiculatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homoscleromorpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homosclerophorida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plakinidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plakortis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angulospiculatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plakortis halichondrioides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">halichondrioides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plakortis spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prosuberites laughlini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hymerhabdiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prosuberites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laughlini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ptilocaulis walpersii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ptilocaulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walpersii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scopalina ruetzleri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scopalinida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scopalinidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scopalina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruetzleri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smenospongia aurea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorectidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smenospongia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aurea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smenospongia conulosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conulosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spheciospongia vesparium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spheciospongia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vesparium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirastrella coccinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirastrella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coccinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirastrella hartmani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hartmani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suberea spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplysinellidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suberea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svenzea zeai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svenzea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zeai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tedania klausi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tedaniidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tedania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klausi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topsentia ophiraphidites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suberitida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halichondriidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topsentia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ophiraphidites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topsentia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verongula reiswigi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verongula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reiswigi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verongula rigida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verongula spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xestospongia muta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xestospongia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acropora cervicornis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stony Coral spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleractinia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acroporidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acropora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cervicornis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acropora palmata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acropora prolifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prolifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricia agaricites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agariciidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agaricites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricia fragilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fragilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricia grahamae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grahamae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricia humilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">humilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricia lamarcki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lamarcki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colpophyllia natans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faviidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colpophyllia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendrogyra cylindrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meandrinidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendrogyra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cylindrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichocoenia stokesii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichocoenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stokesii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diploria labyrinthiformis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diploria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labyrinthiformis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eusmilia fastigiata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eusmilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastigiata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helioseris cucullata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helioseris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cucullata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isophyllia rigida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isophyllia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isophyllia sinuosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sinuosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madracis auretenra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pocilloporidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madracis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auretenra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madracis carmabi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carmabi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madracis decactis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decactis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madracis formosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madracis pharensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pharensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madracis senaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">senaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madracis spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manicina areolata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manicina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areolata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meandrina jacksoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meandrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacksoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meandrina meandrites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meandrites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montastraea cavernosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montastraeidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montastraea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cavernosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mussa angulosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mussa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angulosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycetophyllia aliciae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycetophyllia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliciae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycetophyllia danaana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danaana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycetophyllia ferox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycetophyllia lamarckiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lamarckiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycetophyllia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oculina diffusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oculinidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oculina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diffusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbicella annularis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merulinidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbicella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annularis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbicella annularis (complex)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbicella faveolata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faveolata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbicella franksi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">franksi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porites astreoides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poritidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">astreoides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porites colonensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colonensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porites divaricata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divaricata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porites furcata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">furcata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porites porites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudodiploria clivosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudodiploria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clivosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudodiploria strigosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strigosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scolymia cubensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scolymia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cubensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scolymia spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siderastrea radians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siderastreidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siderastrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siderastrea siderea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siderea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solenastrea bournoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleractinia incertae sedis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solenastrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bournoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephanocoenia intersepta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrocoeniidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephanocoenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intersepta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millepora alcicornis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrozoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthoathecata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milleporidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millepora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcicornis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millepora complanata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complanata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millepora spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millepora squarrosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">squarrosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylaster roseus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylasteridae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roseus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condominium spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoanthid spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protopolyclinidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condominium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palythoa grandis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoantharia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphenopidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palythoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grandis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palythoa caribaeorum</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="661">
+  <si>
+    <t>SAMPLE CODE</t>
+  </si>
+  <si>
+    <t>Benthic Indicator</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Carbonate Budget</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rugosity (m)</t>
+  </si>
+  <si>
+    <t>Rugosity</t>
+  </si>
+  <si>
+    <t>Reef overhang</t>
+  </si>
+  <si>
+    <t>Abiotic</t>
+  </si>
+  <si>
+    <t>Rubble</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Sand and rubble</t>
+  </si>
+  <si>
+    <t>Gaps/Holes</t>
+  </si>
+  <si>
+    <t>Bartholomea annulata</t>
+  </si>
+  <si>
+    <t>Anemone spp.</t>
+  </si>
+  <si>
+    <t>Cnidaria</t>
+  </si>
+  <si>
+    <t>Anthozoa</t>
+  </si>
+  <si>
+    <t>Actiniaria</t>
+  </si>
+  <si>
+    <t>Aiptasiidae</t>
+  </si>
+  <si>
+    <t>Bartholomea</t>
+  </si>
+  <si>
+    <t>annulata</t>
+  </si>
+  <si>
+    <t>Lebrunia neglecta</t>
+  </si>
+  <si>
+    <t>Aliciidae</t>
+  </si>
+  <si>
+    <t>Lebrunia</t>
+  </si>
+  <si>
+    <t>neglecta</t>
+  </si>
+  <si>
+    <t>Phymanthus crucifer</t>
+  </si>
+  <si>
+    <t>Phymanthidae</t>
+  </si>
+  <si>
+    <t>Phymanthus</t>
+  </si>
+  <si>
+    <t>crucifer</t>
+  </si>
+  <si>
+    <t>Ricordea florida</t>
+  </si>
+  <si>
+    <t>Corallimorpharia</t>
+  </si>
+  <si>
+    <t>Ricordeidae</t>
+  </si>
+  <si>
+    <t>Ricordea</t>
+  </si>
+  <si>
+    <t>florida</t>
+  </si>
+  <si>
+    <t>Actiniidae</t>
+  </si>
+  <si>
+    <t>Anemone</t>
+  </si>
+  <si>
+    <t>Eudistoma spp.</t>
+  </si>
+  <si>
+    <t>Ascidian spp.</t>
+  </si>
+  <si>
+    <t>Chordata</t>
+  </si>
+  <si>
+    <t>Ascidiacea</t>
+  </si>
+  <si>
+    <t>Aplousobranchia</t>
+  </si>
+  <si>
+    <t>Polycitoridae</t>
+  </si>
+  <si>
+    <t>Eudistoma</t>
+  </si>
+  <si>
+    <t>Trididemnum solidum</t>
+  </si>
+  <si>
+    <t>Didemnidae</t>
+  </si>
+  <si>
+    <t>Trididemnum</t>
+  </si>
+  <si>
+    <t>solidum</t>
+  </si>
+  <si>
+    <t>Thalassia testudinum</t>
+  </si>
+  <si>
+    <t>Seagrass spp.</t>
+  </si>
+  <si>
+    <t>Tracheophyta</t>
+  </si>
+  <si>
+    <t>Magnoliopsida</t>
+  </si>
+  <si>
+    <t>Alismatales</t>
+  </si>
+  <si>
+    <t>Hydrocharitaceae</t>
+  </si>
+  <si>
+    <t>Thalassia</t>
+  </si>
+  <si>
+    <t>testudinum</t>
+  </si>
+  <si>
+    <t>Amphiroa spp.</t>
+  </si>
+  <si>
+    <t>Macroalgae spp.</t>
+  </si>
+  <si>
+    <t>Rhodophyta</t>
+  </si>
+  <si>
+    <t>Florideophyceae</t>
+  </si>
+  <si>
+    <t>Corallinales</t>
+  </si>
+  <si>
+    <t>Lithophyllaceae</t>
+  </si>
+  <si>
+    <t>Amphiroa</t>
+  </si>
+  <si>
+    <t>Asparagopsis taxiformis</t>
+  </si>
+  <si>
+    <t>Bonnemaisoniales</t>
+  </si>
+  <si>
+    <t>Bonnemaisoniaceae</t>
+  </si>
+  <si>
+    <t>Asparagopsis</t>
+  </si>
+  <si>
+    <t>taxiformis</t>
+  </si>
+  <si>
+    <t>Asparagopsis taxiformis on Ramicrusta</t>
+  </si>
+  <si>
+    <t>Caulerpa racemosa</t>
+  </si>
+  <si>
+    <t>Chlorophyta</t>
+  </si>
+  <si>
+    <t>Ulvophyceae</t>
+  </si>
+  <si>
+    <t>Bryopsidales</t>
+  </si>
+  <si>
+    <t>Caulerpaceae</t>
+  </si>
+  <si>
+    <t>Caulerpa</t>
+  </si>
+  <si>
+    <t>racemosa</t>
+  </si>
+  <si>
+    <t>Caulerpa spp.</t>
+  </si>
+  <si>
+    <t>Caulerpa spp. on Ramicrusta</t>
+  </si>
+  <si>
+    <t>Dichotomaria marginata</t>
+  </si>
+  <si>
+    <t>Nemaliales</t>
+  </si>
+  <si>
+    <t>Galaxauraceae</t>
+  </si>
+  <si>
+    <t>Dichotomaria</t>
+  </si>
+  <si>
+    <t>marginata</t>
+  </si>
+  <si>
+    <t>Dictyota spp.</t>
+  </si>
+  <si>
+    <t>Ochrophyta</t>
+  </si>
+  <si>
+    <t>Phaeophyceae</t>
+  </si>
+  <si>
+    <t>Dictyotales</t>
+  </si>
+  <si>
+    <t>Dictyotaceae</t>
+  </si>
+  <si>
+    <t>Dictyota</t>
+  </si>
+  <si>
+    <t>Dictyota spp. on Ramicrusta</t>
+  </si>
+  <si>
+    <t>Galaxaura spp.</t>
+  </si>
+  <si>
+    <t>Galaxaura</t>
+  </si>
+  <si>
+    <t>Galaxaura spp. on Ramicrusta</t>
+  </si>
+  <si>
+    <t>Gracilaria spp.</t>
+  </si>
+  <si>
+    <t>Gracilariales</t>
+  </si>
+  <si>
+    <t>Gracilariaceae</t>
+  </si>
+  <si>
+    <t>Gracilaria</t>
+  </si>
+  <si>
+    <t>Halimeda discoidea</t>
+  </si>
+  <si>
+    <t>Halimedaceae</t>
+  </si>
+  <si>
+    <t>Halimeda</t>
+  </si>
+  <si>
+    <t>discoidea</t>
+  </si>
+  <si>
+    <t>Halimeda spp.</t>
+  </si>
+  <si>
+    <t>Halimeda spp. on Ramicrusta</t>
+  </si>
+  <si>
+    <t>Halimeda tuna</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>Jania spp.</t>
+  </si>
+  <si>
+    <t>Corallinaceae</t>
+  </si>
+  <si>
+    <t>Jania</t>
+  </si>
+  <si>
+    <t>Lobophora spp.</t>
+  </si>
+  <si>
+    <t>Lobophora</t>
+  </si>
+  <si>
+    <t>Lobophora variegata</t>
+  </si>
+  <si>
+    <t>variegata</t>
+  </si>
+  <si>
+    <t>Lobophora variegatus on Ramicrusta</t>
+  </si>
+  <si>
+    <t>Martensia pavonia</t>
+  </si>
+  <si>
+    <t>Ceramiales</t>
+  </si>
+  <si>
+    <t>Delesseriaceae</t>
+  </si>
+  <si>
+    <t>Martensia</t>
+  </si>
+  <si>
+    <t>pavonia</t>
+  </si>
+  <si>
+    <t>Padina spp.</t>
+  </si>
+  <si>
+    <t>Padina</t>
+  </si>
+  <si>
+    <t>Sargassum hystrix</t>
+  </si>
+  <si>
+    <t>Fucales</t>
+  </si>
+  <si>
+    <t>Sargassaceae</t>
+  </si>
+  <si>
+    <t>Sargassum</t>
+  </si>
+  <si>
+    <t>hystrix</t>
+  </si>
+  <si>
+    <t>Sargassum natans</t>
+  </si>
+  <si>
+    <t>natans</t>
+  </si>
+  <si>
+    <t>Stypopodium spp.</t>
+  </si>
+  <si>
+    <t>Stypopodium</t>
+  </si>
+  <si>
+    <t>Stypopodium zonale</t>
+  </si>
+  <si>
+    <t>zonale</t>
+  </si>
+  <si>
+    <t>Udotea spp.</t>
+  </si>
+  <si>
+    <t>Udoteaceae</t>
+  </si>
+  <si>
+    <t>Udotea</t>
+  </si>
+  <si>
+    <t>Valonia ventricosa</t>
+  </si>
+  <si>
+    <t>Cladophorales</t>
+  </si>
+  <si>
+    <t>Valoniaceae</t>
+  </si>
+  <si>
+    <t>Valonia</t>
+  </si>
+  <si>
+    <t>ventricosa</t>
+  </si>
+  <si>
+    <t>Wrangelia bicuspidata</t>
+  </si>
+  <si>
+    <t>Wrangeliaceae</t>
+  </si>
+  <si>
+    <t>Wrangelia</t>
+  </si>
+  <si>
+    <t>bicuspidata</t>
+  </si>
+  <si>
+    <t>Plantae Kingdom</t>
+  </si>
+  <si>
+    <t>Ramicrusta spp.</t>
+  </si>
+  <si>
+    <t>Peyssonneliaceae spp.</t>
+  </si>
+  <si>
+    <t>Peyssonneliales</t>
+  </si>
+  <si>
+    <t>Peyssonneliaceae</t>
+  </si>
+  <si>
+    <t>Ramicrusta</t>
+  </si>
+  <si>
+    <t>Peyssonnelia spp.</t>
+  </si>
+  <si>
+    <t>Peyssonnelia</t>
+  </si>
+  <si>
+    <t>Turf (mixed) on Ramicrusta</t>
+  </si>
+  <si>
+    <t>Turf algae spp.</t>
+  </si>
+  <si>
+    <t>Turf (mixed) with sediment</t>
+  </si>
+  <si>
+    <t>Turf (mixed)</t>
+  </si>
+  <si>
+    <t>Antillogorgia acerosa</t>
+  </si>
+  <si>
+    <t>Octocoral spp.</t>
+  </si>
+  <si>
+    <t>Alcyonacea</t>
+  </si>
+  <si>
+    <t>Gorgoniidae</t>
+  </si>
+  <si>
+    <t>Antillogorgia</t>
+  </si>
+  <si>
+    <t>acerosa</t>
+  </si>
+  <si>
+    <t>Antillogorgia americana</t>
+  </si>
+  <si>
+    <t>americana</t>
+  </si>
+  <si>
+    <t>Antillogorgia bipinnata</t>
+  </si>
+  <si>
+    <t>bipinnata</t>
+  </si>
+  <si>
+    <t>Antillogorgia rigida</t>
+  </si>
+  <si>
+    <t>rigida</t>
+  </si>
+  <si>
+    <t>Eunicea calyculata</t>
+  </si>
+  <si>
+    <t>Plexauridae</t>
+  </si>
+  <si>
+    <t>Eunicea</t>
+  </si>
+  <si>
+    <t>calyculata</t>
+  </si>
+  <si>
+    <t>Eunicea flexuosa</t>
+  </si>
+  <si>
+    <t>flexuosa</t>
+  </si>
+  <si>
+    <t>Eunicea mammosa</t>
+  </si>
+  <si>
+    <t>mammosa</t>
+  </si>
+  <si>
+    <t>Eunicea pallida</t>
+  </si>
+  <si>
+    <t>pallida</t>
+  </si>
+  <si>
+    <t>Eunicea spp.</t>
+  </si>
+  <si>
+    <t>Eunicea succinea</t>
+  </si>
+  <si>
+    <t>succinea</t>
+  </si>
+  <si>
+    <t>Eunicea tourneforti</t>
+  </si>
+  <si>
+    <t>tourneforti</t>
+  </si>
+  <si>
+    <t>Gorgonia mariae</t>
+  </si>
+  <si>
+    <t>Gorgonia</t>
+  </si>
+  <si>
+    <t>mariae</t>
+  </si>
+  <si>
+    <t>Gorgonia ventalina</t>
+  </si>
+  <si>
+    <t>ventalina</t>
+  </si>
+  <si>
+    <t>Muricea atlantica</t>
+  </si>
+  <si>
+    <t>Muricea</t>
+  </si>
+  <si>
+    <t>atlantica</t>
+  </si>
+  <si>
+    <t>Muricea elongata</t>
+  </si>
+  <si>
+    <t>elongata</t>
+  </si>
+  <si>
+    <t>Muricea muricata</t>
+  </si>
+  <si>
+    <t>muricata</t>
+  </si>
+  <si>
+    <t>Muricea pinnata</t>
+  </si>
+  <si>
+    <t>pinnata</t>
+  </si>
+  <si>
+    <t>Muriceopsis flavida</t>
+  </si>
+  <si>
+    <t>Muriceopsis</t>
+  </si>
+  <si>
+    <t>flavida</t>
+  </si>
+  <si>
+    <t>Plexaura homomalla</t>
+  </si>
+  <si>
+    <t>Plexaura</t>
+  </si>
+  <si>
+    <t>homomalla</t>
+  </si>
+  <si>
+    <t>Plexaura kukenthali</t>
+  </si>
+  <si>
+    <t>kukenthali</t>
+  </si>
+  <si>
+    <t>Plexaura spp.</t>
+  </si>
+  <si>
+    <t>Plexaurella nutans</t>
+  </si>
+  <si>
+    <t>Plexaurella</t>
+  </si>
+  <si>
+    <t>nutans</t>
+  </si>
+  <si>
+    <t>Plexaurella spp.</t>
+  </si>
+  <si>
+    <t>Pseudoplexaura flagellosa</t>
+  </si>
+  <si>
+    <t>Pseudoplexaura</t>
+  </si>
+  <si>
+    <t>flagellosa</t>
+  </si>
+  <si>
+    <t>Pseudoplexaura spp.</t>
+  </si>
+  <si>
+    <t>Pseudoplexaura wagenaari</t>
+  </si>
+  <si>
+    <t>wagenaari</t>
+  </si>
+  <si>
+    <t>Pterogorgia guadalupensis</t>
+  </si>
+  <si>
+    <t>Pterogorgia</t>
+  </si>
+  <si>
+    <t>guadalupensis</t>
+  </si>
+  <si>
+    <t>Pterogorgia spp.</t>
+  </si>
+  <si>
+    <t>Briareum asbestinum</t>
+  </si>
+  <si>
+    <t>Briareidae</t>
+  </si>
+  <si>
+    <t>Briareum</t>
+  </si>
+  <si>
+    <t>asbestinum</t>
+  </si>
+  <si>
+    <t>Erythropodium caribaeorum</t>
+  </si>
+  <si>
+    <t>Anthothelidae</t>
+  </si>
+  <si>
+    <t>Erythropodium</t>
+  </si>
+  <si>
+    <t>caribaeorum</t>
+  </si>
+  <si>
+    <t>Octocoral spp.(encrusting)</t>
+  </si>
+  <si>
+    <t>Agelas citrina</t>
+  </si>
+  <si>
+    <t>Sponge spp.</t>
+  </si>
+  <si>
+    <t>Porifera</t>
+  </si>
+  <si>
+    <t>Demospongiae</t>
+  </si>
+  <si>
+    <t>Agelasida</t>
+  </si>
+  <si>
+    <t>Agelasidae</t>
+  </si>
+  <si>
+    <t>Agelas</t>
+  </si>
+  <si>
+    <t>citrina</t>
+  </si>
+  <si>
+    <t>Agelas clathrodes</t>
+  </si>
+  <si>
+    <t>clathrodes</t>
+  </si>
+  <si>
+    <t>Agelas conifera</t>
+  </si>
+  <si>
+    <t>conifera</t>
+  </si>
+  <si>
+    <t>Agelas dispar</t>
+  </si>
+  <si>
+    <t>dispar</t>
+  </si>
+  <si>
+    <t>Agelas sceptrum</t>
+  </si>
+  <si>
+    <t>sceptrum</t>
+  </si>
+  <si>
+    <t>Agelas spp.</t>
+  </si>
+  <si>
+    <t>Agelas sventres</t>
+  </si>
+  <si>
+    <t>sventres</t>
+  </si>
+  <si>
+    <t>Agelas tubulata</t>
+  </si>
+  <si>
+    <t>tubulata</t>
+  </si>
+  <si>
+    <t>Aiolochroia crassa</t>
+  </si>
+  <si>
+    <t>Verongiida</t>
+  </si>
+  <si>
+    <t>Aplysinidae</t>
+  </si>
+  <si>
+    <t>Aiolochroia</t>
+  </si>
+  <si>
+    <t>crassa</t>
+  </si>
+  <si>
+    <t>Amphimedon compressa</t>
+  </si>
+  <si>
+    <t>Haplosclerida</t>
+  </si>
+  <si>
+    <t>Niphatidae</t>
+  </si>
+  <si>
+    <t>Amphimedon</t>
+  </si>
+  <si>
+    <t>compressa</t>
+  </si>
+  <si>
+    <t>Amphimedon viridis</t>
+  </si>
+  <si>
+    <t>viridis</t>
+  </si>
+  <si>
+    <t>Aplysina archeri</t>
+  </si>
+  <si>
+    <t>Aplysina</t>
+  </si>
+  <si>
+    <t>archeri</t>
+  </si>
+  <si>
+    <t>Aplysina cauliformis</t>
+  </si>
+  <si>
+    <t>cauliformis</t>
+  </si>
+  <si>
+    <t>Aplysina fistularis</t>
+  </si>
+  <si>
+    <t>fistularis</t>
+  </si>
+  <si>
+    <t>Aplysina fulva</t>
+  </si>
+  <si>
+    <t>fulva</t>
+  </si>
+  <si>
+    <t>Aplysina lacunosa</t>
+  </si>
+  <si>
+    <t>lacunosa</t>
+  </si>
+  <si>
+    <t>Aplysina spp.</t>
+  </si>
+  <si>
+    <t>Biemna caribea</t>
+  </si>
+  <si>
+    <t>Biemnida</t>
+  </si>
+  <si>
+    <t>Biemnidae</t>
+  </si>
+  <si>
+    <t>Biemna</t>
+  </si>
+  <si>
+    <t>caribea</t>
+  </si>
+  <si>
+    <t>Biemna spp.</t>
+  </si>
+  <si>
+    <t>Callyspongia armigera</t>
+  </si>
+  <si>
+    <t>Callyspongiidae</t>
+  </si>
+  <si>
+    <t>Callyspongia</t>
+  </si>
+  <si>
+    <t>armigera</t>
+  </si>
+  <si>
+    <t>Callyspongia fallax</t>
+  </si>
+  <si>
+    <t>fallax</t>
+  </si>
+  <si>
+    <t>Callyspongia plicifera</t>
+  </si>
+  <si>
+    <t>plicifera</t>
+  </si>
+  <si>
+    <t>Callyspongia spp.</t>
+  </si>
+  <si>
+    <t>Callyspongia tenerrima</t>
+  </si>
+  <si>
+    <t>tenerrima</t>
+  </si>
+  <si>
+    <t>Callyspongia vaginalis</t>
+  </si>
+  <si>
+    <t>vaginalis</t>
+  </si>
+  <si>
+    <t>Chondrilla caribensis</t>
+  </si>
+  <si>
+    <t>Chondrillida</t>
+  </si>
+  <si>
+    <t>Chondrillidae</t>
+  </si>
+  <si>
+    <t>Chondrilla</t>
+  </si>
+  <si>
+    <t>caribensis</t>
+  </si>
+  <si>
+    <t>Chondrosia collectrix</t>
+  </si>
+  <si>
+    <t>Chondrosiida</t>
+  </si>
+  <si>
+    <t>Chondrosiidae</t>
+  </si>
+  <si>
+    <t>Chondrosia</t>
+  </si>
+  <si>
+    <t>collectrix</t>
+  </si>
+  <si>
+    <t>Cinachyrella apion</t>
+  </si>
+  <si>
+    <t>Tetractinellida</t>
+  </si>
+  <si>
+    <t>Tetillidae</t>
+  </si>
+  <si>
+    <t>Cinachyrella</t>
+  </si>
+  <si>
+    <t>apion</t>
+  </si>
+  <si>
+    <t>Cinachyrella kuekenthali</t>
+  </si>
+  <si>
+    <t>kuekenthali</t>
+  </si>
+  <si>
+    <t>Clathria spp.</t>
+  </si>
+  <si>
+    <t>Poecilosclerida</t>
+  </si>
+  <si>
+    <t>Microcionidae</t>
+  </si>
+  <si>
+    <t>Clathria</t>
+  </si>
+  <si>
+    <t>Clathria venosa</t>
+  </si>
+  <si>
+    <t>venosa</t>
+  </si>
+  <si>
+    <t>Cliona aprica</t>
+  </si>
+  <si>
+    <t>Clionaida</t>
+  </si>
+  <si>
+    <t>Clionaidae</t>
+  </si>
+  <si>
+    <t>Cliona</t>
+  </si>
+  <si>
+    <t>aprica</t>
+  </si>
+  <si>
+    <t>Cliona caribbaea</t>
+  </si>
+  <si>
+    <t>caribbaea</t>
+  </si>
+  <si>
+    <t>Cliona delitrix</t>
+  </si>
+  <si>
+    <t>delitrix</t>
+  </si>
+  <si>
+    <t>Cliona laticavicola</t>
+  </si>
+  <si>
+    <t>laticavicola</t>
+  </si>
+  <si>
+    <t>Cliona spp.</t>
+  </si>
+  <si>
+    <t>Cliona tenuis</t>
+  </si>
+  <si>
+    <t>tenuis</t>
+  </si>
+  <si>
+    <t>Cliona varians</t>
+  </si>
+  <si>
+    <t>varians</t>
+  </si>
+  <si>
+    <t>Cribrochalina vasculum</t>
+  </si>
+  <si>
+    <t>Cribrochalina</t>
+  </si>
+  <si>
+    <t>vasculum</t>
+  </si>
+  <si>
+    <t>Desmapsamma spp.</t>
+  </si>
+  <si>
+    <t>Desmacididae</t>
+  </si>
+  <si>
+    <t>Desmapsamma</t>
+  </si>
+  <si>
+    <t>Desmapsamma anchorata</t>
+  </si>
+  <si>
+    <t>anchorata</t>
+  </si>
+  <si>
+    <t>Dictyonella funicularis</t>
+  </si>
+  <si>
+    <t>Bubarida</t>
+  </si>
+  <si>
+    <t>Dictyonellidae</t>
+  </si>
+  <si>
+    <t>Dictyonella</t>
+  </si>
+  <si>
+    <t>funicularis</t>
+  </si>
+  <si>
+    <t>Dictyonella spp.</t>
+  </si>
+  <si>
+    <t>Diplastrella spp.</t>
+  </si>
+  <si>
+    <t>Spirastrellidae</t>
+  </si>
+  <si>
+    <t>Diplastrella</t>
+  </si>
+  <si>
+    <t>Dragmacidon reticulatum</t>
+  </si>
+  <si>
+    <t>Axinellida</t>
+  </si>
+  <si>
+    <t>Axinellidae</t>
+  </si>
+  <si>
+    <t>Dragmacidon</t>
+  </si>
+  <si>
+    <t>reticulatum</t>
+  </si>
+  <si>
+    <t>Dysidea etheria</t>
+  </si>
+  <si>
+    <t>Dictyoceratida</t>
+  </si>
+  <si>
+    <t>Dysideidae</t>
+  </si>
+  <si>
+    <t>Dysidea</t>
+  </si>
+  <si>
+    <t>etheria</t>
+  </si>
+  <si>
+    <t>Dysidea janiae</t>
+  </si>
+  <si>
+    <t>janiae</t>
+  </si>
+  <si>
+    <t>Ectyoplasia ferox</t>
+  </si>
+  <si>
+    <t>Raspailiidae</t>
+  </si>
+  <si>
+    <t>Ectyoplasia</t>
+  </si>
+  <si>
+    <t>ferox</t>
+  </si>
+  <si>
+    <t>Geodia neptuni</t>
+  </si>
+  <si>
+    <t>Geodiidae</t>
+  </si>
+  <si>
+    <t>Geodia</t>
+  </si>
+  <si>
+    <t>neptuni</t>
+  </si>
+  <si>
+    <t>Haliclona spp.</t>
+  </si>
+  <si>
+    <t>Chalinidae</t>
+  </si>
+  <si>
+    <t>Haliclona</t>
+  </si>
+  <si>
+    <t>Halisarca caerulea</t>
+  </si>
+  <si>
+    <t>Halisarcidae</t>
+  </si>
+  <si>
+    <t>Halisarca</t>
+  </si>
+  <si>
+    <t>caerulea</t>
+  </si>
+  <si>
+    <t>Halisarca spp.</t>
+  </si>
+  <si>
+    <t>Iotrochota arenosa</t>
+  </si>
+  <si>
+    <t>Iotrochotidae</t>
+  </si>
+  <si>
+    <t>Iotrochota</t>
+  </si>
+  <si>
+    <t>arenosa</t>
+  </si>
+  <si>
+    <t>Iotrochota birotulata</t>
+  </si>
+  <si>
+    <t>birotulata</t>
+  </si>
+  <si>
+    <t>Ircinia campana</t>
+  </si>
+  <si>
+    <t>Irciniidae</t>
+  </si>
+  <si>
+    <t>Ircinia</t>
+  </si>
+  <si>
+    <t>campana</t>
+  </si>
+  <si>
+    <t>Ircinia felix</t>
+  </si>
+  <si>
+    <t>felix</t>
+  </si>
+  <si>
+    <t>Ircinia spp.</t>
+  </si>
+  <si>
+    <t>Ircinia strobilina</t>
+  </si>
+  <si>
+    <t>strobilina</t>
+  </si>
+  <si>
+    <t>Monanchora arbuscula</t>
+  </si>
+  <si>
+    <t>Crambeidae</t>
+  </si>
+  <si>
+    <t>Monanchora</t>
+  </si>
+  <si>
+    <t>arbuscula</t>
+  </si>
+  <si>
+    <t>Mycale laevis</t>
+  </si>
+  <si>
+    <t>Mycalidae</t>
+  </si>
+  <si>
+    <t>Mycale</t>
+  </si>
+  <si>
+    <t>laevis</t>
+  </si>
+  <si>
+    <t>Mycale laxissima</t>
+  </si>
+  <si>
+    <t>laxissima</t>
+  </si>
+  <si>
+    <t>Neofibularia nolitangere</t>
+  </si>
+  <si>
+    <t>Neofibularia</t>
+  </si>
+  <si>
+    <t>nolitangere</t>
+  </si>
+  <si>
+    <t>Neopetrosia carbonaria</t>
+  </si>
+  <si>
+    <t>Petrosiidae</t>
+  </si>
+  <si>
+    <t>Neopetrosia</t>
+  </si>
+  <si>
+    <t>carbonaria</t>
+  </si>
+  <si>
+    <t>Neopetrosia proxima</t>
+  </si>
+  <si>
+    <t>proxima</t>
+  </si>
+  <si>
+    <t>Neopetrosia rosariensis</t>
+  </si>
+  <si>
+    <t>rosariensis</t>
+  </si>
+  <si>
+    <t>Neopetrosia spp.</t>
+  </si>
+  <si>
+    <t>Niphates alba</t>
+  </si>
+  <si>
+    <t>Niphates</t>
+  </si>
+  <si>
+    <t>alba</t>
+  </si>
+  <si>
+    <t>Amphimedon caribica</t>
+  </si>
+  <si>
+    <t>caribica</t>
+  </si>
+  <si>
+    <t>Niphates caycedoi</t>
+  </si>
+  <si>
+    <t>caycedoi</t>
+  </si>
+  <si>
+    <t>Niphates digitalis</t>
+  </si>
+  <si>
+    <t>digitalis</t>
+  </si>
+  <si>
+    <t>Niphates erecta</t>
+  </si>
+  <si>
+    <t>erecta</t>
+  </si>
+  <si>
+    <t>Niphates spp.</t>
+  </si>
+  <si>
+    <t>Petrosia pellasarca</t>
+  </si>
+  <si>
+    <t>Petrosia</t>
+  </si>
+  <si>
+    <t>pellasarca</t>
+  </si>
+  <si>
+    <t>Petrosia spp.</t>
+  </si>
+  <si>
+    <t>Petrosia weinbergi</t>
+  </si>
+  <si>
+    <t>weinbergi</t>
+  </si>
+  <si>
+    <t>Phorbas amaranthus</t>
+  </si>
+  <si>
+    <t>Hymedesmiidae</t>
+  </si>
+  <si>
+    <t>Phorbas</t>
+  </si>
+  <si>
+    <t>amaranthus</t>
+  </si>
+  <si>
+    <t>Timea micraster</t>
+  </si>
+  <si>
+    <t>Hadromerida</t>
+  </si>
+  <si>
+    <t>Placospongiidae</t>
+  </si>
+  <si>
+    <t>Timea</t>
+  </si>
+  <si>
+    <t>micraster</t>
+  </si>
+  <si>
+    <t>Plakortis angulospiculatus</t>
+  </si>
+  <si>
+    <t>Homoscleromorpha</t>
+  </si>
+  <si>
+    <t>Homosclerophorida</t>
+  </si>
+  <si>
+    <t>Plakinidae</t>
+  </si>
+  <si>
+    <t>Plakortis</t>
+  </si>
+  <si>
+    <t>angulospiculatus</t>
+  </si>
+  <si>
+    <t>Plakortis halichondrioides</t>
+  </si>
+  <si>
+    <t>halichondrioides</t>
+  </si>
+  <si>
+    <t>Plakortis spp.</t>
+  </si>
+  <si>
+    <t>Prosuberites laughlini</t>
+  </si>
+  <si>
+    <t>Hymerhabdiidae</t>
+  </si>
+  <si>
+    <t>Prosuberites</t>
+  </si>
+  <si>
+    <t>laughlini</t>
+  </si>
+  <si>
+    <t>Ptilocaulis walpersii</t>
+  </si>
+  <si>
+    <t>Ptilocaulis</t>
+  </si>
+  <si>
+    <t>walpersii</t>
+  </si>
+  <si>
+    <t>Scopalina ruetzleri</t>
+  </si>
+  <si>
+    <t>Scopalinida</t>
+  </si>
+  <si>
+    <t>Scopalinidae</t>
+  </si>
+  <si>
+    <t>Scopalina</t>
+  </si>
+  <si>
+    <t>ruetzleri</t>
+  </si>
+  <si>
+    <t>Smenospongia aurea</t>
+  </si>
+  <si>
+    <t>Thorectidae</t>
+  </si>
+  <si>
+    <t>Smenospongia</t>
+  </si>
+  <si>
+    <t>aurea</t>
+  </si>
+  <si>
+    <t>Smenospongia conulosa</t>
+  </si>
+  <si>
+    <t>conulosa</t>
+  </si>
+  <si>
+    <t>Spheciospongia vesparium</t>
+  </si>
+  <si>
+    <t>Spheciospongia</t>
+  </si>
+  <si>
+    <t>vesparium</t>
+  </si>
+  <si>
+    <t>Spirastrella coccinea</t>
+  </si>
+  <si>
+    <t>Spirastrella</t>
+  </si>
+  <si>
+    <t>coccinea</t>
+  </si>
+  <si>
+    <t>Spirastrella hartmani</t>
+  </si>
+  <si>
+    <t>hartmani</t>
+  </si>
+  <si>
+    <t>Suberea spp.</t>
+  </si>
+  <si>
+    <t>Aplysinellidae</t>
+  </si>
+  <si>
+    <t>Suberea</t>
+  </si>
+  <si>
+    <t>Svenzea zeai</t>
+  </si>
+  <si>
+    <t>Svenzea</t>
+  </si>
+  <si>
+    <t>zeai</t>
+  </si>
+  <si>
+    <t>Tedania klausi</t>
+  </si>
+  <si>
+    <t>Tedaniidae</t>
+  </si>
+  <si>
+    <t>Tedania</t>
+  </si>
+  <si>
+    <t>klausi</t>
+  </si>
+  <si>
+    <t>Topsentia ophiraphidites</t>
+  </si>
+  <si>
+    <t>Suberitida</t>
+  </si>
+  <si>
+    <t>Halichondriidae</t>
+  </si>
+  <si>
+    <t>Topsentia</t>
+  </si>
+  <si>
+    <t>ophiraphidites</t>
+  </si>
+  <si>
+    <t>Topsentia spp.</t>
+  </si>
+  <si>
+    <t>Verongula reiswigi</t>
+  </si>
+  <si>
+    <t>Verongula</t>
+  </si>
+  <si>
+    <t>reiswigi</t>
+  </si>
+  <si>
+    <t>Verongula rigida</t>
+  </si>
+  <si>
+    <t>Verongula spp.</t>
+  </si>
+  <si>
+    <t>Xestospongia muta</t>
+  </si>
+  <si>
+    <t>Xestospongia</t>
+  </si>
+  <si>
+    <t>muta</t>
+  </si>
+  <si>
+    <t>Acropora cervicornis</t>
+  </si>
+  <si>
+    <t>Stony Coral spp.</t>
+  </si>
+  <si>
+    <t>Scleractinia</t>
+  </si>
+  <si>
+    <t>Acroporidae</t>
+  </si>
+  <si>
+    <t>Acropora</t>
+  </si>
+  <si>
+    <t>cervicornis</t>
+  </si>
+  <si>
+    <t>Acropora palmata</t>
+  </si>
+  <si>
+    <t>palmata</t>
+  </si>
+  <si>
+    <t>Acropora prolifera</t>
+  </si>
+  <si>
+    <t>prolifera</t>
+  </si>
+  <si>
+    <t>Agaricia agaricites</t>
+  </si>
+  <si>
+    <t>Agariciidae</t>
+  </si>
+  <si>
+    <t>Agaricia</t>
+  </si>
+  <si>
+    <t>agaricites</t>
+  </si>
+  <si>
+    <t>Agaricia fragilis</t>
+  </si>
+  <si>
+    <t>fragilis</t>
+  </si>
+  <si>
+    <t>Agaricia grahamae</t>
+  </si>
+  <si>
+    <t>grahamae</t>
+  </si>
+  <si>
+    <t>Agaricia humilis</t>
+  </si>
+  <si>
+    <t>humilis</t>
+  </si>
+  <si>
+    <t>Agaricia lamarcki</t>
+  </si>
+  <si>
+    <t>lamarcki</t>
+  </si>
+  <si>
+    <t>Agaricia spp.</t>
+  </si>
+  <si>
+    <t>Colpophyllia natans</t>
+  </si>
+  <si>
+    <t>Faviidae</t>
+  </si>
+  <si>
+    <t>Colpophyllia</t>
+  </si>
+  <si>
+    <t>Dendrogyra cylindrus</t>
+  </si>
+  <si>
+    <t>Meandrinidae</t>
+  </si>
+  <si>
+    <t>Dendrogyra</t>
+  </si>
+  <si>
+    <t>cylindrus</t>
+  </si>
+  <si>
+    <t>Dichocoenia stokesii</t>
+  </si>
+  <si>
+    <t>Dichocoenia</t>
+  </si>
+  <si>
+    <t>stokesii</t>
+  </si>
+  <si>
+    <t>Diploria labyrinthiformis</t>
+  </si>
+  <si>
+    <t>Diploria</t>
+  </si>
+  <si>
+    <t>labyrinthiformis</t>
+  </si>
+  <si>
+    <t>Eusmilia fastigiata</t>
+  </si>
+  <si>
+    <t>Eusmilia</t>
+  </si>
+  <si>
+    <t>fastigiata</t>
+  </si>
+  <si>
+    <t>Helioseris cucullata</t>
+  </si>
+  <si>
+    <t>Helioseris</t>
+  </si>
+  <si>
+    <t>cucullata</t>
+  </si>
+  <si>
+    <t>Isophyllia rigida</t>
+  </si>
+  <si>
+    <t>Isophyllia</t>
+  </si>
+  <si>
+    <t>Isophyllia sinuosa</t>
+  </si>
+  <si>
+    <t>sinuosa</t>
+  </si>
+  <si>
+    <t>Madracis auretenra</t>
+  </si>
+  <si>
+    <t>Pocilloporidae</t>
+  </si>
+  <si>
+    <t>Madracis</t>
+  </si>
+  <si>
+    <t>auretenra</t>
+  </si>
+  <si>
+    <t>Madracis carmabi</t>
+  </si>
+  <si>
+    <t>carmabi</t>
+  </si>
+  <si>
+    <t>Madracis decactis</t>
+  </si>
+  <si>
+    <t>decactis</t>
+  </si>
+  <si>
+    <t>Madracis formosa</t>
+  </si>
+  <si>
+    <t>formosa</t>
+  </si>
+  <si>
+    <t>Madracis pharensis</t>
+  </si>
+  <si>
+    <t>pharensis</t>
+  </si>
+  <si>
+    <t>Madracis senaria</t>
+  </si>
+  <si>
+    <t>senaria</t>
+  </si>
+  <si>
+    <t>Madracis spp.</t>
+  </si>
+  <si>
+    <t>Manicina areolata</t>
+  </si>
+  <si>
+    <t>Manicina</t>
+  </si>
+  <si>
+    <t>areolata</t>
+  </si>
+  <si>
+    <t>Meandrina jacksoni</t>
+  </si>
+  <si>
+    <t>Meandrina</t>
+  </si>
+  <si>
+    <t>jacksoni</t>
+  </si>
+  <si>
+    <t>Meandrina meandrites</t>
+  </si>
+  <si>
+    <t>meandrites</t>
+  </si>
+  <si>
+    <t>Montastraea cavernosa</t>
+  </si>
+  <si>
+    <t>Montastraeidae</t>
+  </si>
+  <si>
+    <t>Montastraea</t>
+  </si>
+  <si>
+    <t>cavernosa</t>
+  </si>
+  <si>
+    <t>Mussa angulosa</t>
+  </si>
+  <si>
+    <t>Mussa</t>
+  </si>
+  <si>
+    <t>angulosa</t>
+  </si>
+  <si>
+    <t>Mycetophyllia aliciae</t>
+  </si>
+  <si>
+    <t>Mycetophyllia</t>
+  </si>
+  <si>
+    <t>aliciae</t>
+  </si>
+  <si>
+    <t>Mycetophyllia danaana</t>
+  </si>
+  <si>
+    <t>danaana</t>
+  </si>
+  <si>
+    <t>Mycetophyllia ferox</t>
+  </si>
+  <si>
+    <t>Mycetophyllia lamarckiana</t>
+  </si>
+  <si>
+    <t>lamarckiana</t>
+  </si>
+  <si>
+    <t>Mycetophyllia spp.</t>
+  </si>
+  <si>
+    <t>Oculina diffusa</t>
+  </si>
+  <si>
+    <t>Oculinidae</t>
+  </si>
+  <si>
+    <t>Oculina</t>
+  </si>
+  <si>
+    <t>diffusa</t>
+  </si>
+  <si>
+    <t>Orbicella annularis</t>
+  </si>
+  <si>
+    <t>Merulinidae</t>
+  </si>
+  <si>
+    <t>Orbicella</t>
+  </si>
+  <si>
+    <t>annularis</t>
+  </si>
+  <si>
+    <t>Orbicella annularis (complex)</t>
+  </si>
+  <si>
+    <t>Orbicella faveolata</t>
+  </si>
+  <si>
+    <t>faveolata</t>
+  </si>
+  <si>
+    <t>Orbicella franksi</t>
+  </si>
+  <si>
+    <t>franksi</t>
+  </si>
+  <si>
+    <t>Porites astreoides</t>
+  </si>
+  <si>
+    <t>Poritidae</t>
+  </si>
+  <si>
+    <t>Porites</t>
+  </si>
+  <si>
+    <t>astreoides</t>
+  </si>
+  <si>
+    <t>Porites colonensis</t>
+  </si>
+  <si>
+    <t>colonensis</t>
+  </si>
+  <si>
+    <t>Porites divaricata</t>
+  </si>
+  <si>
+    <t>divaricata</t>
+  </si>
+  <si>
+    <t>Porites furcata</t>
+  </si>
+  <si>
+    <t>furcata</t>
+  </si>
+  <si>
+    <t>Porites porites</t>
+  </si>
+  <si>
+    <t>porites</t>
+  </si>
+  <si>
+    <t>Pseudodiploria clivosa</t>
+  </si>
+  <si>
+    <t>Pseudodiploria</t>
+  </si>
+  <si>
+    <t>clivosa</t>
+  </si>
+  <si>
+    <t>Pseudodiploria strigosa</t>
+  </si>
+  <si>
+    <t>strigosa</t>
+  </si>
+  <si>
+    <t>Scolymia cubensis</t>
+  </si>
+  <si>
+    <t>Scolymia</t>
+  </si>
+  <si>
+    <t>cubensis</t>
+  </si>
+  <si>
+    <t>Scolymia spp.</t>
+  </si>
+  <si>
+    <t>Siderastrea radians</t>
+  </si>
+  <si>
+    <t>Siderastreidae</t>
+  </si>
+  <si>
+    <t>Siderastrea</t>
+  </si>
+  <si>
+    <t>radians</t>
+  </si>
+  <si>
+    <t>Siderastrea siderea</t>
+  </si>
+  <si>
+    <t>siderea</t>
+  </si>
+  <si>
+    <t>Solenastrea bournoni</t>
+  </si>
+  <si>
+    <t>Scleractinia incertae sedis</t>
+  </si>
+  <si>
+    <t>Solenastrea</t>
+  </si>
+  <si>
+    <t>bournoni</t>
+  </si>
+  <si>
+    <t>Stephanocoenia intersepta</t>
+  </si>
+  <si>
+    <t>Astrocoeniidae</t>
+  </si>
+  <si>
+    <t>Stephanocoenia</t>
+  </si>
+  <si>
+    <t>intersepta</t>
+  </si>
+  <si>
+    <t>Millepora alcicornis</t>
+  </si>
+  <si>
+    <t>Hydrozoa</t>
+  </si>
+  <si>
+    <t>Anthoathecata</t>
+  </si>
+  <si>
+    <t>Milleporidae</t>
+  </si>
+  <si>
+    <t>Millepora</t>
+  </si>
+  <si>
+    <t>alcicornis</t>
+  </si>
+  <si>
+    <t>Millepora complanata</t>
+  </si>
+  <si>
+    <t>complanata</t>
+  </si>
+  <si>
+    <t>Millepora spp.</t>
+  </si>
+  <si>
+    <t>Millepora squarrosa</t>
+  </si>
+  <si>
+    <t>squarrosa</t>
+  </si>
+  <si>
+    <t>Stylaster roseus</t>
+  </si>
+  <si>
+    <t>Stylasteridae</t>
+  </si>
+  <si>
+    <t>Stylaster</t>
+  </si>
+  <si>
+    <t>roseus</t>
+  </si>
+  <si>
+    <t>Condominium spp.</t>
+  </si>
+  <si>
+    <t>Zoanthid spp.</t>
+  </si>
+  <si>
+    <t>Protopolyclinidae</t>
+  </si>
+  <si>
+    <t>Condominium</t>
+  </si>
+  <si>
+    <t>Palythoa grandis</t>
+  </si>
+  <si>
+    <t>Zoantharia</t>
+  </si>
+  <si>
+    <t>Sphenopidae</t>
+  </si>
+  <si>
+    <t>Palythoa</t>
+  </si>
+  <si>
+    <t>grandis</t>
+  </si>
+  <si>
+    <t>Palythoa caribaeorum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2038,6 +2045,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2319,14 +2335,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J242"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2358,103 +2380,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2479,10 +2453,8 @@
       <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2507,10 +2479,8 @@
       <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2535,10 +2505,8 @@
       <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2563,10 +2531,8 @@
       <c r="H11" t="s">
         <v>38</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2588,11 +2554,8 @@
       <c r="G12" t="s">
         <v>40</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2614,11 +2577,8 @@
       <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2643,10 +2603,8 @@
       <c r="H14" t="s">
         <v>51</v>
       </c>
-      <c r="I14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2659,14 +2617,8 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2691,10 +2643,8 @@
       <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2716,11 +2666,8 @@
       <c r="G17" t="s">
         <v>66</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2745,10 +2692,8 @@
       <c r="H18" t="s">
         <v>71</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2773,10 +2718,8 @@
       <c r="H19" t="s">
         <v>71</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2801,10 +2744,8 @@
       <c r="H20" t="s">
         <v>79</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2826,11 +2767,8 @@
       <c r="G21" t="s">
         <v>78</v>
       </c>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2852,11 +2790,8 @@
       <c r="G22" t="s">
         <v>78</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2881,10 +2816,8 @@
       <c r="H23" t="s">
         <v>86</v>
       </c>
-      <c r="I23"/>
-      <c r="J23"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -2906,11 +2839,8 @@
       <c r="G24" t="s">
         <v>92</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2932,11 +2862,8 @@
       <c r="G25" t="s">
         <v>92</v>
       </c>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -2958,11 +2885,8 @@
       <c r="G26" t="s">
         <v>95</v>
       </c>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2984,11 +2908,8 @@
       <c r="G27" t="s">
         <v>95</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -3010,11 +2931,8 @@
       <c r="G28" t="s">
         <v>100</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -3039,10 +2957,8 @@
       <c r="H29" t="s">
         <v>104</v>
       </c>
-      <c r="I29"/>
-      <c r="J29"/>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -3064,11 +2980,8 @@
       <c r="G30" t="s">
         <v>103</v>
       </c>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -3090,11 +3003,8 @@
       <c r="G31" t="s">
         <v>103</v>
       </c>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -3119,10 +3029,8 @@
       <c r="H32" t="s">
         <v>108</v>
       </c>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -3144,11 +3052,8 @@
       <c r="G33" t="s">
         <v>111</v>
       </c>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -3170,11 +3075,8 @@
       <c r="G34" t="s">
         <v>113</v>
       </c>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3199,10 +3101,8 @@
       <c r="H35" t="s">
         <v>115</v>
       </c>
-      <c r="I35"/>
-      <c r="J35"/>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -3227,10 +3127,8 @@
       <c r="H36" t="s">
         <v>115</v>
       </c>
-      <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -3255,10 +3153,8 @@
       <c r="H37" t="s">
         <v>121</v>
       </c>
-      <c r="I37"/>
-      <c r="J37"/>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -3280,11 +3176,8 @@
       <c r="G38" t="s">
         <v>123</v>
       </c>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -3309,10 +3202,8 @@
       <c r="H39" t="s">
         <v>128</v>
       </c>
-      <c r="I39"/>
-      <c r="J39"/>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -3337,10 +3228,8 @@
       <c r="H40" t="s">
         <v>130</v>
       </c>
-      <c r="I40"/>
-      <c r="J40"/>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -3362,11 +3251,8 @@
       <c r="G41" t="s">
         <v>132</v>
       </c>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>133</v>
       </c>
@@ -3391,10 +3277,8 @@
       <c r="H42" t="s">
         <v>134</v>
       </c>
-      <c r="I42"/>
-      <c r="J42"/>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>135</v>
       </c>
@@ -3416,11 +3300,8 @@
       <c r="G43" t="s">
         <v>137</v>
       </c>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -3445,10 +3326,8 @@
       <c r="H44" t="s">
         <v>142</v>
       </c>
-      <c r="I44"/>
-      <c r="J44"/>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>143</v>
       </c>
@@ -3473,10 +3352,8 @@
       <c r="H45" t="s">
         <v>146</v>
       </c>
-      <c r="I45"/>
-      <c r="J45"/>
-    </row>
-    <row r="46">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -3486,15 +3363,8 @@
       <c r="C46" t="s">
         <v>147</v>
       </c>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>148</v>
       </c>
@@ -3516,11 +3386,8 @@
       <c r="G47" t="s">
         <v>152</v>
       </c>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-    </row>
-    <row r="48">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -3542,11 +3409,8 @@
       <c r="G48" t="s">
         <v>154</v>
       </c>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -3556,15 +3420,8 @@
       <c r="C49" t="s">
         <v>147</v>
       </c>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>157</v>
       </c>
@@ -3574,15 +3431,8 @@
       <c r="C50" t="s">
         <v>147</v>
       </c>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -3592,15 +3442,8 @@
       <c r="C51" t="s">
         <v>147</v>
       </c>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-    </row>
-    <row r="52">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -3625,10 +3468,8 @@
       <c r="H52" t="s">
         <v>164</v>
       </c>
-      <c r="I52"/>
-      <c r="J52"/>
-    </row>
-    <row r="53">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -3653,10 +3494,8 @@
       <c r="H53" t="s">
         <v>166</v>
       </c>
-      <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -3681,10 +3520,8 @@
       <c r="H54" t="s">
         <v>168</v>
       </c>
-      <c r="I54"/>
-      <c r="J54"/>
-    </row>
-    <row r="55">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -3709,10 +3546,8 @@
       <c r="H55" t="s">
         <v>170</v>
       </c>
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="56">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -3737,10 +3572,8 @@
       <c r="H56" t="s">
         <v>174</v>
       </c>
-      <c r="I56"/>
-      <c r="J56"/>
-    </row>
-    <row r="57">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -3765,10 +3598,8 @@
       <c r="H57" t="s">
         <v>176</v>
       </c>
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>177</v>
       </c>
@@ -3793,10 +3624,8 @@
       <c r="H58" t="s">
         <v>178</v>
       </c>
-      <c r="I58"/>
-      <c r="J58"/>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -3821,10 +3650,8 @@
       <c r="H59" t="s">
         <v>180</v>
       </c>
-      <c r="I59"/>
-      <c r="J59"/>
-    </row>
-    <row r="60">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -3846,11 +3673,8 @@
       <c r="G60" t="s">
         <v>173</v>
       </c>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-    </row>
-    <row r="61">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -3875,10 +3699,8 @@
       <c r="H61" t="s">
         <v>183</v>
       </c>
-      <c r="I61"/>
-      <c r="J61"/>
-    </row>
-    <row r="62">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -3903,10 +3725,8 @@
       <c r="H62" t="s">
         <v>185</v>
       </c>
-      <c r="I62"/>
-      <c r="J62"/>
-    </row>
-    <row r="63">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -3931,10 +3751,8 @@
       <c r="H63" t="s">
         <v>188</v>
       </c>
-      <c r="I63"/>
-      <c r="J63"/>
-    </row>
-    <row r="64">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -3959,10 +3777,8 @@
       <c r="H64" t="s">
         <v>190</v>
       </c>
-      <c r="I64"/>
-      <c r="J64"/>
-    </row>
-    <row r="65">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -3987,10 +3803,8 @@
       <c r="H65" t="s">
         <v>193</v>
       </c>
-      <c r="I65"/>
-      <c r="J65"/>
-    </row>
-    <row r="66">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -4015,10 +3829,8 @@
       <c r="H66" t="s">
         <v>195</v>
       </c>
-      <c r="I66"/>
-      <c r="J66"/>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>196</v>
       </c>
@@ -4043,10 +3855,8 @@
       <c r="H67" t="s">
         <v>197</v>
       </c>
-      <c r="I67"/>
-      <c r="J67"/>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -4071,10 +3881,8 @@
       <c r="H68" t="s">
         <v>199</v>
       </c>
-      <c r="I68"/>
-      <c r="J68"/>
-    </row>
-    <row r="69">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -4099,10 +3907,8 @@
       <c r="H69" t="s">
         <v>202</v>
       </c>
-      <c r="I69"/>
-      <c r="J69"/>
-    </row>
-    <row r="70">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -4127,10 +3933,8 @@
       <c r="H70" t="s">
         <v>205</v>
       </c>
-      <c r="I70"/>
-      <c r="J70"/>
-    </row>
-    <row r="71">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>206</v>
       </c>
@@ -4155,10 +3959,8 @@
       <c r="H71" t="s">
         <v>207</v>
       </c>
-      <c r="I71"/>
-      <c r="J71"/>
-    </row>
-    <row r="72">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>208</v>
       </c>
@@ -4180,11 +3982,8 @@
       <c r="G72" t="s">
         <v>204</v>
       </c>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-    </row>
-    <row r="73">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>209</v>
       </c>
@@ -4209,10 +4008,8 @@
       <c r="H73" t="s">
         <v>211</v>
       </c>
-      <c r="I73"/>
-      <c r="J73"/>
-    </row>
-    <row r="74">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>212</v>
       </c>
@@ -4234,11 +4031,8 @@
       <c r="G74" t="s">
         <v>210</v>
       </c>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-    </row>
-    <row r="75">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>213</v>
       </c>
@@ -4263,10 +4057,8 @@
       <c r="H75" t="s">
         <v>215</v>
       </c>
-      <c r="I75"/>
-      <c r="J75"/>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>216</v>
       </c>
@@ -4288,11 +4080,8 @@
       <c r="G76" t="s">
         <v>214</v>
       </c>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-    </row>
-    <row r="77">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>217</v>
       </c>
@@ -4317,10 +4106,8 @@
       <c r="H77" t="s">
         <v>218</v>
       </c>
-      <c r="I77"/>
-      <c r="J77"/>
-    </row>
-    <row r="78">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>219</v>
       </c>
@@ -4345,10 +4132,8 @@
       <c r="H78" t="s">
         <v>221</v>
       </c>
-      <c r="I78"/>
-      <c r="J78"/>
-    </row>
-    <row r="79">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -4370,11 +4155,8 @@
       <c r="G79" t="s">
         <v>220</v>
       </c>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-    </row>
-    <row r="80">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -4390,13 +4172,8 @@
       <c r="E80" t="s">
         <v>161</v>
       </c>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-    </row>
-    <row r="81">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -4421,10 +4198,8 @@
       <c r="H81" t="s">
         <v>226</v>
       </c>
-      <c r="I81"/>
-      <c r="J81"/>
-    </row>
-    <row r="82">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>227</v>
       </c>
@@ -4449,10 +4224,8 @@
       <c r="H82" t="s">
         <v>230</v>
       </c>
-      <c r="I82"/>
-      <c r="J82"/>
-    </row>
-    <row r="83">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>231</v>
       </c>
@@ -4471,12 +4244,8 @@
       <c r="F83" t="s">
         <v>228</v>
       </c>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-    </row>
-    <row r="84">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -4501,10 +4270,8 @@
       <c r="H84" t="s">
         <v>239</v>
       </c>
-      <c r="I84"/>
-      <c r="J84"/>
-    </row>
-    <row r="85">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>240</v>
       </c>
@@ -4529,10 +4296,8 @@
       <c r="H85" t="s">
         <v>241</v>
       </c>
-      <c r="I85"/>
-      <c r="J85"/>
-    </row>
-    <row r="86">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>242</v>
       </c>
@@ -4557,10 +4322,8 @@
       <c r="H86" t="s">
         <v>243</v>
       </c>
-      <c r="I86"/>
-      <c r="J86"/>
-    </row>
-    <row r="87">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>244</v>
       </c>
@@ -4585,10 +4348,8 @@
       <c r="H87" t="s">
         <v>245</v>
       </c>
-      <c r="I87"/>
-      <c r="J87"/>
-    </row>
-    <row r="88">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>246</v>
       </c>
@@ -4613,10 +4374,8 @@
       <c r="H88" t="s">
         <v>247</v>
       </c>
-      <c r="I88"/>
-      <c r="J88"/>
-    </row>
-    <row r="89">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -4638,11 +4397,8 @@
       <c r="G89" t="s">
         <v>238</v>
       </c>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-    </row>
-    <row r="90">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -4667,10 +4423,8 @@
       <c r="H90" t="s">
         <v>250</v>
       </c>
-      <c r="I90"/>
-      <c r="J90"/>
-    </row>
-    <row r="91">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -4695,10 +4449,8 @@
       <c r="H91" t="s">
         <v>252</v>
       </c>
-      <c r="I91"/>
-      <c r="J91"/>
-    </row>
-    <row r="92">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>253</v>
       </c>
@@ -4723,10 +4475,8 @@
       <c r="H92" t="s">
         <v>257</v>
       </c>
-      <c r="I92"/>
-      <c r="J92"/>
-    </row>
-    <row r="93">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>258</v>
       </c>
@@ -4751,10 +4501,8 @@
       <c r="H93" t="s">
         <v>262</v>
       </c>
-      <c r="I93"/>
-      <c r="J93"/>
-    </row>
-    <row r="94">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>263</v>
       </c>
@@ -4779,10 +4527,8 @@
       <c r="H94" t="s">
         <v>264</v>
       </c>
-      <c r="I94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>265</v>
       </c>
@@ -4807,10 +4553,8 @@
       <c r="H95" t="s">
         <v>267</v>
       </c>
-      <c r="I95"/>
-      <c r="J95"/>
-    </row>
-    <row r="96">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>268</v>
       </c>
@@ -4835,10 +4579,8 @@
       <c r="H96" t="s">
         <v>269</v>
       </c>
-      <c r="I96"/>
-      <c r="J96"/>
-    </row>
-    <row r="97">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>270</v>
       </c>
@@ -4863,10 +4605,8 @@
       <c r="H97" t="s">
         <v>271</v>
       </c>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -4891,10 +4631,8 @@
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>274</v>
       </c>
@@ -4919,10 +4657,8 @@
       <c r="H99" t="s">
         <v>275</v>
       </c>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>276</v>
       </c>
@@ -4944,11 +4680,8 @@
       <c r="G100" t="s">
         <v>266</v>
       </c>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-    </row>
-    <row r="101">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>277</v>
       </c>
@@ -4973,10 +4706,8 @@
       <c r="H101" t="s">
         <v>281</v>
       </c>
-      <c r="I101"/>
-      <c r="J101"/>
-    </row>
-    <row r="102">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>282</v>
       </c>
@@ -4998,11 +4729,8 @@
       <c r="G102" t="s">
         <v>280</v>
       </c>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-    </row>
-    <row r="103">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>283</v>
       </c>
@@ -5027,10 +4755,8 @@
       <c r="H103" t="s">
         <v>286</v>
       </c>
-      <c r="I103"/>
-      <c r="J103"/>
-    </row>
-    <row r="104">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>287</v>
       </c>
@@ -5055,10 +4781,8 @@
       <c r="H104" t="s">
         <v>288</v>
       </c>
-      <c r="I104"/>
-      <c r="J104"/>
-    </row>
-    <row r="105">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>289</v>
       </c>
@@ -5083,10 +4807,8 @@
       <c r="H105" t="s">
         <v>290</v>
       </c>
-      <c r="I105"/>
-      <c r="J105"/>
-    </row>
-    <row r="106">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>291</v>
       </c>
@@ -5108,11 +4830,8 @@
       <c r="G106" t="s">
         <v>285</v>
       </c>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-    </row>
-    <row r="107">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>292</v>
       </c>
@@ -5137,10 +4856,8 @@
       <c r="H107" t="s">
         <v>293</v>
       </c>
-      <c r="I107"/>
-      <c r="J107"/>
-    </row>
-    <row r="108">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>294</v>
       </c>
@@ -5165,10 +4882,8 @@
       <c r="H108" t="s">
         <v>295</v>
       </c>
-      <c r="I108"/>
-      <c r="J108"/>
-    </row>
-    <row r="109">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>296</v>
       </c>
@@ -5193,10 +4908,8 @@
       <c r="H109" t="s">
         <v>300</v>
       </c>
-      <c r="I109"/>
-      <c r="J109"/>
-    </row>
-    <row r="110">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>301</v>
       </c>
@@ -5221,10 +4934,8 @@
       <c r="H110" t="s">
         <v>305</v>
       </c>
-      <c r="I110"/>
-      <c r="J110"/>
-    </row>
-    <row r="111">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>306</v>
       </c>
@@ -5249,10 +4960,8 @@
       <c r="H111" t="s">
         <v>310</v>
       </c>
-      <c r="I111"/>
-      <c r="J111"/>
-    </row>
-    <row r="112">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>311</v>
       </c>
@@ -5277,10 +4986,8 @@
       <c r="H112" t="s">
         <v>312</v>
       </c>
-      <c r="I112"/>
-      <c r="J112"/>
-    </row>
-    <row r="113">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>313</v>
       </c>
@@ -5302,11 +5009,8 @@
       <c r="G113" t="s">
         <v>316</v>
       </c>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="J113"/>
-    </row>
-    <row r="114">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>317</v>
       </c>
@@ -5331,10 +5035,8 @@
       <c r="H114" t="s">
         <v>318</v>
       </c>
-      <c r="I114"/>
-      <c r="J114"/>
-    </row>
-    <row r="115">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>319</v>
       </c>
@@ -5359,10 +5061,8 @@
       <c r="H115" t="s">
         <v>323</v>
       </c>
-      <c r="I115"/>
-      <c r="J115"/>
-    </row>
-    <row r="116">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>324</v>
       </c>
@@ -5387,10 +5087,8 @@
       <c r="H116" t="s">
         <v>325</v>
       </c>
-      <c r="I116"/>
-      <c r="J116"/>
-    </row>
-    <row r="117">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>326</v>
       </c>
@@ -5415,10 +5113,8 @@
       <c r="H117" t="s">
         <v>327</v>
       </c>
-      <c r="I117"/>
-      <c r="J117"/>
-    </row>
-    <row r="118">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>328</v>
       </c>
@@ -5443,10 +5139,8 @@
       <c r="H118" t="s">
         <v>329</v>
       </c>
-      <c r="I118"/>
-      <c r="J118"/>
-    </row>
-    <row r="119">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>330</v>
       </c>
@@ -5468,11 +5162,8 @@
       <c r="G119" t="s">
         <v>322</v>
       </c>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-    </row>
-    <row r="120">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>331</v>
       </c>
@@ -5497,10 +5188,8 @@
       <c r="H120" t="s">
         <v>332</v>
       </c>
-      <c r="I120"/>
-      <c r="J120"/>
-    </row>
-    <row r="121">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>333</v>
       </c>
@@ -5525,10 +5214,8 @@
       <c r="H121" t="s">
         <v>334</v>
       </c>
-      <c r="I121"/>
-      <c r="J121"/>
-    </row>
-    <row r="122">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>335</v>
       </c>
@@ -5553,10 +5240,8 @@
       <c r="H122" t="s">
         <v>337</v>
       </c>
-      <c r="I122"/>
-      <c r="J122"/>
-    </row>
-    <row r="123">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>338</v>
       </c>
@@ -5578,11 +5263,8 @@
       <c r="G123" t="s">
         <v>340</v>
       </c>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-    </row>
-    <row r="124">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>341</v>
       </c>
@@ -5607,10 +5289,8 @@
       <c r="H124" t="s">
         <v>342</v>
       </c>
-      <c r="I124"/>
-      <c r="J124"/>
-    </row>
-    <row r="125">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>343</v>
       </c>
@@ -5635,10 +5315,8 @@
       <c r="H125" t="s">
         <v>347</v>
       </c>
-      <c r="I125"/>
-      <c r="J125"/>
-    </row>
-    <row r="126">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>348</v>
       </c>
@@ -5660,11 +5338,8 @@
       <c r="G126" t="s">
         <v>346</v>
       </c>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-    </row>
-    <row r="127">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>349</v>
       </c>
@@ -5686,11 +5361,8 @@
       <c r="G127" t="s">
         <v>351</v>
       </c>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127"/>
-    </row>
-    <row r="128">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>352</v>
       </c>
@@ -5715,10 +5387,8 @@
       <c r="H128" t="s">
         <v>356</v>
       </c>
-      <c r="I128"/>
-      <c r="J128"/>
-    </row>
-    <row r="129">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>357</v>
       </c>
@@ -5743,10 +5413,8 @@
       <c r="H129" t="s">
         <v>361</v>
       </c>
-      <c r="I129"/>
-      <c r="J129"/>
-    </row>
-    <row r="130">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>362</v>
       </c>
@@ -5771,10 +5439,8 @@
       <c r="H130" t="s">
         <v>363</v>
       </c>
-      <c r="I130"/>
-      <c r="J130"/>
-    </row>
-    <row r="131">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>364</v>
       </c>
@@ -5799,10 +5465,8 @@
       <c r="H131" t="s">
         <v>367</v>
       </c>
-      <c r="I131"/>
-      <c r="J131"/>
-    </row>
-    <row r="132">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>368</v>
       </c>
@@ -5827,10 +5491,8 @@
       <c r="H132" t="s">
         <v>371</v>
       </c>
-      <c r="I132"/>
-      <c r="J132"/>
-    </row>
-    <row r="133">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>372</v>
       </c>
@@ -5852,11 +5514,8 @@
       <c r="G133" t="s">
         <v>374</v>
       </c>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
-    </row>
-    <row r="134">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>375</v>
       </c>
@@ -5881,10 +5540,8 @@
       <c r="H134" t="s">
         <v>378</v>
       </c>
-      <c r="I134"/>
-      <c r="J134"/>
-    </row>
-    <row r="135">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>379</v>
       </c>
@@ -5906,11 +5563,8 @@
       <c r="G135" t="s">
         <v>377</v>
       </c>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
-    </row>
-    <row r="136">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>380</v>
       </c>
@@ -5935,10 +5589,8 @@
       <c r="H136" t="s">
         <v>383</v>
       </c>
-      <c r="I136"/>
-      <c r="J136"/>
-    </row>
-    <row r="137">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>384</v>
       </c>
@@ -5963,10 +5615,8 @@
       <c r="H137" t="s">
         <v>385</v>
       </c>
-      <c r="I137"/>
-      <c r="J137"/>
-    </row>
-    <row r="138">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>386</v>
       </c>
@@ -5991,10 +5641,8 @@
       <c r="H138" t="s">
         <v>389</v>
       </c>
-      <c r="I138"/>
-      <c r="J138"/>
-    </row>
-    <row r="139">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>390</v>
       </c>
@@ -6019,10 +5667,8 @@
       <c r="H139" t="s">
         <v>391</v>
       </c>
-      <c r="I139"/>
-      <c r="J139"/>
-    </row>
-    <row r="140">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>392</v>
       </c>
@@ -6044,11 +5690,8 @@
       <c r="G140" t="s">
         <v>388</v>
       </c>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
-    </row>
-    <row r="141">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>393</v>
       </c>
@@ -6073,10 +5716,8 @@
       <c r="H141" t="s">
         <v>394</v>
       </c>
-      <c r="I141"/>
-      <c r="J141"/>
-    </row>
-    <row r="142">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>395</v>
       </c>
@@ -6101,10 +5742,8 @@
       <c r="H142" t="s">
         <v>398</v>
       </c>
-      <c r="I142"/>
-      <c r="J142"/>
-    </row>
-    <row r="143">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>399</v>
       </c>
@@ -6129,10 +5768,8 @@
       <c r="H143" t="s">
         <v>402</v>
       </c>
-      <c r="I143"/>
-      <c r="J143"/>
-    </row>
-    <row r="144">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>403</v>
       </c>
@@ -6157,10 +5794,8 @@
       <c r="H144" t="s">
         <v>404</v>
       </c>
-      <c r="I144"/>
-      <c r="J144"/>
-    </row>
-    <row r="145">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>405</v>
       </c>
@@ -6185,10 +5820,8 @@
       <c r="H145" t="s">
         <v>407</v>
       </c>
-      <c r="I145"/>
-      <c r="J145"/>
-    </row>
-    <row r="146">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>408</v>
       </c>
@@ -6213,10 +5846,8 @@
       <c r="H146" t="s">
         <v>411</v>
       </c>
-      <c r="I146"/>
-      <c r="J146"/>
-    </row>
-    <row r="147">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -6241,10 +5872,8 @@
       <c r="H147" t="s">
         <v>413</v>
       </c>
-      <c r="I147"/>
-      <c r="J147"/>
-    </row>
-    <row r="148">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>414</v>
       </c>
@@ -6269,10 +5898,8 @@
       <c r="H148" t="s">
         <v>415</v>
       </c>
-      <c r="I148"/>
-      <c r="J148"/>
-    </row>
-    <row r="149">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>416</v>
       </c>
@@ -6294,11 +5921,8 @@
       <c r="G149" t="s">
         <v>410</v>
       </c>
-      <c r="H149"/>
-      <c r="I149"/>
-      <c r="J149"/>
-    </row>
-    <row r="150">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>417</v>
       </c>
@@ -6323,10 +5947,8 @@
       <c r="H150" t="s">
         <v>419</v>
       </c>
-      <c r="I150"/>
-      <c r="J150"/>
-    </row>
-    <row r="151">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>420</v>
       </c>
@@ -6351,10 +5973,8 @@
       <c r="H151" t="s">
         <v>421</v>
       </c>
-      <c r="I151"/>
-      <c r="J151"/>
-    </row>
-    <row r="152">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>422</v>
       </c>
@@ -6379,10 +5999,8 @@
       <c r="H152" t="s">
         <v>423</v>
       </c>
-      <c r="I152"/>
-      <c r="J152"/>
-    </row>
-    <row r="153">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>424</v>
       </c>
@@ -6407,10 +6025,8 @@
       <c r="H153" t="s">
         <v>425</v>
       </c>
-      <c r="I153"/>
-      <c r="J153"/>
-    </row>
-    <row r="154">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>426</v>
       </c>
@@ -6435,10 +6051,8 @@
       <c r="H154" t="s">
         <v>427</v>
       </c>
-      <c r="I154"/>
-      <c r="J154"/>
-    </row>
-    <row r="155">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>428</v>
       </c>
@@ -6460,11 +6074,8 @@
       <c r="G155" t="s">
         <v>418</v>
       </c>
-      <c r="H155"/>
-      <c r="I155"/>
-      <c r="J155"/>
-    </row>
-    <row r="156">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>429</v>
       </c>
@@ -6489,10 +6100,8 @@
       <c r="H156" t="s">
         <v>431</v>
       </c>
-      <c r="I156"/>
-      <c r="J156"/>
-    </row>
-    <row r="157">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>432</v>
       </c>
@@ -6514,11 +6123,8 @@
       <c r="G157" t="s">
         <v>430</v>
       </c>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
-    </row>
-    <row r="158">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>433</v>
       </c>
@@ -6543,10 +6149,8 @@
       <c r="H158" t="s">
         <v>434</v>
       </c>
-      <c r="I158"/>
-      <c r="J158"/>
-    </row>
-    <row r="159">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>435</v>
       </c>
@@ -6571,10 +6175,8 @@
       <c r="H159" t="s">
         <v>438</v>
       </c>
-      <c r="I159"/>
-      <c r="J159"/>
-    </row>
-    <row r="160">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>439</v>
       </c>
@@ -6599,10 +6201,8 @@
       <c r="H160" t="s">
         <v>443</v>
       </c>
-      <c r="I160"/>
-      <c r="J160"/>
-    </row>
-    <row r="161">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>444</v>
       </c>
@@ -6627,10 +6227,8 @@
       <c r="H161" t="s">
         <v>449</v>
       </c>
-      <c r="I161"/>
-      <c r="J161"/>
-    </row>
-    <row r="162">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>450</v>
       </c>
@@ -6655,10 +6253,8 @@
       <c r="H162" t="s">
         <v>451</v>
       </c>
-      <c r="I162"/>
-      <c r="J162"/>
-    </row>
-    <row r="163">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>452</v>
       </c>
@@ -6680,11 +6276,8 @@
       <c r="G163" t="s">
         <v>448</v>
       </c>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="J163"/>
-    </row>
-    <row r="164">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>453</v>
       </c>
@@ -6709,10 +6302,8 @@
       <c r="H164" t="s">
         <v>456</v>
       </c>
-      <c r="I164"/>
-      <c r="J164"/>
-    </row>
-    <row r="165">
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>457</v>
       </c>
@@ -6737,10 +6328,8 @@
       <c r="H165" t="s">
         <v>459</v>
       </c>
-      <c r="I165"/>
-      <c r="J165"/>
-    </row>
-    <row r="166">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>460</v>
       </c>
@@ -6765,10 +6354,8 @@
       <c r="H166" t="s">
         <v>464</v>
       </c>
-      <c r="I166"/>
-      <c r="J166"/>
-    </row>
-    <row r="167">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>465</v>
       </c>
@@ -6793,10 +6380,8 @@
       <c r="H167" t="s">
         <v>468</v>
       </c>
-      <c r="I167"/>
-      <c r="J167"/>
-    </row>
-    <row r="168">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>469</v>
       </c>
@@ -6821,10 +6406,8 @@
       <c r="H168" t="s">
         <v>470</v>
       </c>
-      <c r="I168"/>
-      <c r="J168"/>
-    </row>
-    <row r="169">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>471</v>
       </c>
@@ -6849,10 +6432,8 @@
       <c r="H169" t="s">
         <v>473</v>
       </c>
-      <c r="I169"/>
-      <c r="J169"/>
-    </row>
-    <row r="170">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>474</v>
       </c>
@@ -6877,10 +6458,8 @@
       <c r="H170" t="s">
         <v>476</v>
       </c>
-      <c r="I170"/>
-      <c r="J170"/>
-    </row>
-    <row r="171">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>477</v>
       </c>
@@ -6905,10 +6484,8 @@
       <c r="H171" t="s">
         <v>478</v>
       </c>
-      <c r="I171"/>
-      <c r="J171"/>
-    </row>
-    <row r="172">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>479</v>
       </c>
@@ -6930,11 +6507,8 @@
       <c r="G172" t="s">
         <v>481</v>
       </c>
-      <c r="H172"/>
-      <c r="I172"/>
-      <c r="J172"/>
-    </row>
-    <row r="173">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>482</v>
       </c>
@@ -6959,10 +6533,8 @@
       <c r="H173" t="s">
         <v>484</v>
       </c>
-      <c r="I173"/>
-      <c r="J173"/>
-    </row>
-    <row r="174">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>485</v>
       </c>
@@ -6987,10 +6559,8 @@
       <c r="H174" t="s">
         <v>488</v>
       </c>
-      <c r="I174"/>
-      <c r="J174"/>
-    </row>
-    <row r="175">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>489</v>
       </c>
@@ -7015,10 +6585,8 @@
       <c r="H175" t="s">
         <v>493</v>
       </c>
-      <c r="I175"/>
-      <c r="J175"/>
-    </row>
-    <row r="176">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>494</v>
       </c>
@@ -7040,11 +6608,8 @@
       <c r="G176" t="s">
         <v>492</v>
       </c>
-      <c r="H176"/>
-      <c r="I176"/>
-      <c r="J176"/>
-    </row>
-    <row r="177">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>495</v>
       </c>
@@ -7069,10 +6634,8 @@
       <c r="H177" t="s">
         <v>497</v>
       </c>
-      <c r="I177"/>
-      <c r="J177"/>
-    </row>
-    <row r="178">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>498</v>
       </c>
@@ -7097,10 +6660,8 @@
       <c r="H178" t="s">
         <v>170</v>
       </c>
-      <c r="I178"/>
-      <c r="J178"/>
-    </row>
-    <row r="179">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>499</v>
       </c>
@@ -7122,11 +6683,8 @@
       <c r="G179" t="s">
         <v>496</v>
       </c>
-      <c r="H179"/>
-      <c r="I179"/>
-      <c r="J179"/>
-    </row>
-    <row r="180">
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>500</v>
       </c>
@@ -7151,10 +6709,8 @@
       <c r="H180" t="s">
         <v>502</v>
       </c>
-      <c r="I180"/>
-      <c r="J180"/>
-    </row>
-    <row r="181">
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>233</v>
       </c>
@@ -7164,15 +6720,8 @@
       <c r="C181" t="s">
         <v>234</v>
       </c>
-      <c r="D181"/>
-      <c r="E181"/>
-      <c r="F181"/>
-      <c r="G181"/>
-      <c r="H181"/>
-      <c r="I181"/>
-      <c r="J181"/>
-    </row>
-    <row r="182">
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>503</v>
       </c>
@@ -7197,10 +6746,8 @@
       <c r="H182" t="s">
         <v>508</v>
       </c>
-      <c r="I182"/>
-      <c r="J182"/>
-    </row>
-    <row r="183">
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>509</v>
       </c>
@@ -7225,10 +6772,8 @@
       <c r="H183" t="s">
         <v>510</v>
       </c>
-      <c r="I183"/>
-      <c r="J183"/>
-    </row>
-    <row r="184">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>511</v>
       </c>
@@ -7253,10 +6798,8 @@
       <c r="H184" t="s">
         <v>512</v>
       </c>
-      <c r="I184"/>
-      <c r="J184"/>
-    </row>
-    <row r="185">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>513</v>
       </c>
@@ -7281,10 +6824,8 @@
       <c r="H185" t="s">
         <v>516</v>
       </c>
-      <c r="I185"/>
-      <c r="J185"/>
-    </row>
-    <row r="186">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>517</v>
       </c>
@@ -7309,10 +6850,8 @@
       <c r="H186" t="s">
         <v>518</v>
       </c>
-      <c r="I186"/>
-      <c r="J186"/>
-    </row>
-    <row r="187">
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>519</v>
       </c>
@@ -7337,10 +6876,8 @@
       <c r="H187" t="s">
         <v>520</v>
       </c>
-      <c r="I187"/>
-      <c r="J187"/>
-    </row>
-    <row r="188">
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>521</v>
       </c>
@@ -7365,10 +6902,8 @@
       <c r="H188" t="s">
         <v>522</v>
       </c>
-      <c r="I188"/>
-      <c r="J188"/>
-    </row>
-    <row r="189">
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>523</v>
       </c>
@@ -7393,10 +6928,8 @@
       <c r="H189" t="s">
         <v>524</v>
       </c>
-      <c r="I189"/>
-      <c r="J189"/>
-    </row>
-    <row r="190">
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>525</v>
       </c>
@@ -7418,11 +6951,8 @@
       <c r="G190" t="s">
         <v>515</v>
       </c>
-      <c r="H190"/>
-      <c r="I190"/>
-      <c r="J190"/>
-    </row>
-    <row r="191">
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>526</v>
       </c>
@@ -7447,10 +6977,8 @@
       <c r="H191" t="s">
         <v>130</v>
       </c>
-      <c r="I191"/>
-      <c r="J191"/>
-    </row>
-    <row r="192">
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>529</v>
       </c>
@@ -7475,10 +7003,8 @@
       <c r="H192" t="s">
         <v>532</v>
       </c>
-      <c r="I192"/>
-      <c r="J192"/>
-    </row>
-    <row r="193">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>533</v>
       </c>
@@ -7503,10 +7029,8 @@
       <c r="H193" t="s">
         <v>535</v>
       </c>
-      <c r="I193"/>
-      <c r="J193"/>
-    </row>
-    <row r="194">
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>536</v>
       </c>
@@ -7531,10 +7055,8 @@
       <c r="H194" t="s">
         <v>538</v>
       </c>
-      <c r="I194"/>
-      <c r="J194"/>
-    </row>
-    <row r="195">
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>539</v>
       </c>
@@ -7559,10 +7081,8 @@
       <c r="H195" t="s">
         <v>541</v>
       </c>
-      <c r="I195"/>
-      <c r="J195"/>
-    </row>
-    <row r="196">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>542</v>
       </c>
@@ -7587,10 +7107,8 @@
       <c r="H196" t="s">
         <v>544</v>
       </c>
-      <c r="I196"/>
-      <c r="J196"/>
-    </row>
-    <row r="197">
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>545</v>
       </c>
@@ -7615,10 +7133,8 @@
       <c r="H197" t="s">
         <v>170</v>
       </c>
-      <c r="I197"/>
-      <c r="J197"/>
-    </row>
-    <row r="198">
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>547</v>
       </c>
@@ -7643,10 +7159,8 @@
       <c r="H198" t="s">
         <v>548</v>
       </c>
-      <c r="I198"/>
-      <c r="J198"/>
-    </row>
-    <row r="199">
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>549</v>
       </c>
@@ -7671,10 +7185,8 @@
       <c r="H199" t="s">
         <v>552</v>
       </c>
-      <c r="I199"/>
-      <c r="J199"/>
-    </row>
-    <row r="200">
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>553</v>
       </c>
@@ -7699,10 +7211,8 @@
       <c r="H200" t="s">
         <v>554</v>
       </c>
-      <c r="I200"/>
-      <c r="J200"/>
-    </row>
-    <row r="201">
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>555</v>
       </c>
@@ -7727,10 +7237,8 @@
       <c r="H201" t="s">
         <v>556</v>
       </c>
-      <c r="I201"/>
-      <c r="J201"/>
-    </row>
-    <row r="202">
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>557</v>
       </c>
@@ -7755,10 +7263,8 @@
       <c r="H202" t="s">
         <v>558</v>
       </c>
-      <c r="I202"/>
-      <c r="J202"/>
-    </row>
-    <row r="203">
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>559</v>
       </c>
@@ -7783,10 +7289,8 @@
       <c r="H203" t="s">
         <v>560</v>
       </c>
-      <c r="I203"/>
-      <c r="J203"/>
-    </row>
-    <row r="204">
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>561</v>
       </c>
@@ -7811,10 +7315,8 @@
       <c r="H204" t="s">
         <v>562</v>
       </c>
-      <c r="I204"/>
-      <c r="J204"/>
-    </row>
-    <row r="205">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>563</v>
       </c>
@@ -7836,11 +7338,8 @@
       <c r="G205" t="s">
         <v>551</v>
       </c>
-      <c r="H205"/>
-      <c r="I205"/>
-      <c r="J205"/>
-    </row>
-    <row r="206">
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>564</v>
       </c>
@@ -7865,10 +7364,8 @@
       <c r="H206" t="s">
         <v>566</v>
       </c>
-      <c r="I206"/>
-      <c r="J206"/>
-    </row>
-    <row r="207">
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>567</v>
       </c>
@@ -7893,10 +7390,8 @@
       <c r="H207" t="s">
         <v>569</v>
       </c>
-      <c r="I207"/>
-      <c r="J207"/>
-    </row>
-    <row r="208">
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>570</v>
       </c>
@@ -7921,10 +7416,8 @@
       <c r="H208" t="s">
         <v>571</v>
       </c>
-      <c r="I208"/>
-      <c r="J208"/>
-    </row>
-    <row r="209">
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>572</v>
       </c>
@@ -7949,10 +7442,8 @@
       <c r="H209" t="s">
         <v>575</v>
       </c>
-      <c r="I209"/>
-      <c r="J209"/>
-    </row>
-    <row r="210">
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>576</v>
       </c>
@@ -7977,10 +7468,8 @@
       <c r="H210" t="s">
         <v>578</v>
       </c>
-      <c r="I210"/>
-      <c r="J210"/>
-    </row>
-    <row r="211">
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>579</v>
       </c>
@@ -8005,10 +7494,8 @@
       <c r="H211" t="s">
         <v>581</v>
       </c>
-      <c r="I211"/>
-      <c r="J211"/>
-    </row>
-    <row r="212">
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>582</v>
       </c>
@@ -8033,10 +7520,8 @@
       <c r="H212" t="s">
         <v>583</v>
       </c>
-      <c r="I212"/>
-      <c r="J212"/>
-    </row>
-    <row r="213">
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>584</v>
       </c>
@@ -8061,10 +7546,8 @@
       <c r="H213" t="s">
         <v>367</v>
       </c>
-      <c r="I213"/>
-      <c r="J213"/>
-    </row>
-    <row r="214">
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>585</v>
       </c>
@@ -8089,10 +7572,8 @@
       <c r="H214" t="s">
         <v>586</v>
       </c>
-      <c r="I214"/>
-      <c r="J214"/>
-    </row>
-    <row r="215">
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>587</v>
       </c>
@@ -8114,11 +7595,8 @@
       <c r="G215" t="s">
         <v>580</v>
       </c>
-      <c r="H215"/>
-      <c r="I215"/>
-      <c r="J215"/>
-    </row>
-    <row r="216">
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>588</v>
       </c>
@@ -8143,10 +7621,8 @@
       <c r="H216" t="s">
         <v>591</v>
       </c>
-      <c r="I216"/>
-      <c r="J216"/>
-    </row>
-    <row r="217">
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>592</v>
       </c>
@@ -8171,10 +7647,8 @@
       <c r="H217" t="s">
         <v>595</v>
       </c>
-      <c r="I217"/>
-      <c r="J217"/>
-    </row>
-    <row r="218">
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>596</v>
       </c>
@@ -8199,10 +7673,8 @@
       <c r="H218" t="s">
         <v>595</v>
       </c>
-      <c r="I218"/>
-      <c r="J218"/>
-    </row>
-    <row r="219">
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>597</v>
       </c>
@@ -8227,10 +7699,8 @@
       <c r="H219" t="s">
         <v>598</v>
       </c>
-      <c r="I219"/>
-      <c r="J219"/>
-    </row>
-    <row r="220">
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>599</v>
       </c>
@@ -8255,10 +7725,8 @@
       <c r="H220" t="s">
         <v>600</v>
       </c>
-      <c r="I220"/>
-      <c r="J220"/>
-    </row>
-    <row r="221">
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>601</v>
       </c>
@@ -8283,10 +7751,8 @@
       <c r="H221" t="s">
         <v>604</v>
       </c>
-      <c r="I221"/>
-      <c r="J221"/>
-    </row>
-    <row r="222">
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>605</v>
       </c>
@@ -8311,10 +7777,8 @@
       <c r="H222" t="s">
         <v>606</v>
       </c>
-      <c r="I222"/>
-      <c r="J222"/>
-    </row>
-    <row r="223">
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>607</v>
       </c>
@@ -8339,10 +7803,8 @@
       <c r="H223" t="s">
         <v>608</v>
       </c>
-      <c r="I223"/>
-      <c r="J223"/>
-    </row>
-    <row r="224">
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>609</v>
       </c>
@@ -8367,10 +7829,8 @@
       <c r="H224" t="s">
         <v>610</v>
       </c>
-      <c r="I224"/>
-      <c r="J224"/>
-    </row>
-    <row r="225">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>611</v>
       </c>
@@ -8395,10 +7855,8 @@
       <c r="H225" t="s">
         <v>612</v>
       </c>
-      <c r="I225"/>
-      <c r="J225"/>
-    </row>
-    <row r="226">
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>613</v>
       </c>
@@ -8423,10 +7881,8 @@
       <c r="H226" t="s">
         <v>615</v>
       </c>
-      <c r="I226"/>
-      <c r="J226"/>
-    </row>
-    <row r="227">
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>616</v>
       </c>
@@ -8451,10 +7907,8 @@
       <c r="H227" t="s">
         <v>617</v>
       </c>
-      <c r="I227"/>
-      <c r="J227"/>
-    </row>
-    <row r="228">
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>618</v>
       </c>
@@ -8479,10 +7933,8 @@
       <c r="H228" t="s">
         <v>620</v>
       </c>
-      <c r="I228"/>
-      <c r="J228"/>
-    </row>
-    <row r="229">
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>621</v>
       </c>
@@ -8504,11 +7956,8 @@
       <c r="G229" t="s">
         <v>619</v>
       </c>
-      <c r="H229"/>
-      <c r="I229"/>
-      <c r="J229"/>
-    </row>
-    <row r="230">
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>622</v>
       </c>
@@ -8533,10 +7982,8 @@
       <c r="H230" t="s">
         <v>625</v>
       </c>
-      <c r="I230"/>
-      <c r="J230"/>
-    </row>
-    <row r="231">
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>626</v>
       </c>
@@ -8561,10 +8008,8 @@
       <c r="H231" t="s">
         <v>627</v>
       </c>
-      <c r="I231"/>
-      <c r="J231"/>
-    </row>
-    <row r="232">
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>628</v>
       </c>
@@ -8589,10 +8034,8 @@
       <c r="H232" t="s">
         <v>631</v>
       </c>
-      <c r="I232"/>
-      <c r="J232"/>
-    </row>
-    <row r="233">
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>632</v>
       </c>
@@ -8617,10 +8060,8 @@
       <c r="H233" t="s">
         <v>635</v>
       </c>
-      <c r="I233"/>
-      <c r="J233"/>
-    </row>
-    <row r="234">
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>504</v>
       </c>
@@ -8636,13 +8077,8 @@
       <c r="E234" t="s">
         <v>505</v>
       </c>
-      <c r="F234"/>
-      <c r="G234"/>
-      <c r="H234"/>
-      <c r="I234"/>
-      <c r="J234"/>
-    </row>
-    <row r="235">
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>636</v>
       </c>
@@ -8667,10 +8103,8 @@
       <c r="H235" t="s">
         <v>641</v>
       </c>
-      <c r="I235"/>
-      <c r="J235"/>
-    </row>
-    <row r="236">
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>642</v>
       </c>
@@ -8695,10 +8129,8 @@
       <c r="H236" t="s">
         <v>643</v>
       </c>
-      <c r="I236"/>
-      <c r="J236"/>
-    </row>
-    <row r="237">
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>644</v>
       </c>
@@ -8720,11 +8152,8 @@
       <c r="G237" t="s">
         <v>640</v>
       </c>
-      <c r="H237"/>
-      <c r="I237"/>
-      <c r="J237"/>
-    </row>
-    <row r="238">
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>645</v>
       </c>
@@ -8749,10 +8178,8 @@
       <c r="H238" t="s">
         <v>646</v>
       </c>
-      <c r="I238"/>
-      <c r="J238"/>
-    </row>
-    <row r="239">
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>647</v>
       </c>
@@ -8777,10 +8204,8 @@
       <c r="H239" t="s">
         <v>650</v>
       </c>
-      <c r="I239"/>
-      <c r="J239"/>
-    </row>
-    <row r="240">
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>651</v>
       </c>
@@ -8802,11 +8227,8 @@
       <c r="G240" t="s">
         <v>654</v>
       </c>
-      <c r="H240"/>
-      <c r="I240"/>
-      <c r="J240"/>
-    </row>
-    <row r="241">
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>655</v>
       </c>
@@ -8831,10 +8253,8 @@
       <c r="H241" t="s">
         <v>659</v>
       </c>
-      <c r="I241"/>
-      <c r="J241"/>
-    </row>
-    <row r="242">
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>660</v>
       </c>
@@ -8859,11 +8279,9 @@
       <c r="H242" t="s">
         <v>230</v>
       </c>
-      <c r="I242"/>
-      <c r="J242"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>